--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about changes to access arrangements and public rights of way
-</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1220,8 +1219,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1353,8 +1351,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1622,8 +1619,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1755,9 +1751,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1965,10 +1959,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about biodiversity net gain requirements for the development,
-including pre-development biodiversity value, habitat loss details, and
-supporting documentation
-</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2002,8 +1993,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2037,9 +2027,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2125,8 +2113,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -2212,8 +2199,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the materials used in the development, including both existing and proposed materials
-</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -2457,8 +2443,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of the site and/or property for development, including agricultural tenants and notification requirements.
-</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -2908,8 +2893,7 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about how the proposed development affects existing parking arrangements
-</t>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -2969,8 +2953,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -3108,8 +3091,7 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -3247,9 +3229,7 @@
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -3527,8 +3507,7 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -3704,8 +3683,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about trees and hedges on or adjacent to the development site, including any that pose risks or need to be removed
-</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -437,7 +437,7 @@
   <cols>
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="72" customWidth="1" min="6" max="6"/>
@@ -2354,19 +2354,19 @@
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Additional material information</t>
+          <t>Providing additional material information</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>Additional context or details about the materials to be used in the development</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,10 @@
     <col width="43" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1083,17 +1184,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1109,17 +1211,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1135,17 +1238,18 @@
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1165,17 +1269,18 @@
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1195,17 +1300,18 @@
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1229,17 +1335,18 @@
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1259,17 +1366,18 @@
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1293,17 +1401,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1327,17 +1436,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1365,17 +1475,18 @@
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1399,17 +1510,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1433,17 +1545,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1467,17 +1580,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1501,17 +1615,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1535,17 +1650,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1565,17 +1681,18 @@
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1595,17 +1712,18 @@
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1629,17 +1747,18 @@
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1659,17 +1778,18 @@
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1693,17 +1813,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1727,17 +1848,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1765,17 +1887,18 @@
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1799,17 +1922,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1833,17 +1957,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1867,17 +1992,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1901,17 +2027,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1935,17 +2062,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1969,17 +2097,18 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2003,17 +2132,18 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2037,17 +2167,18 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2063,17 +2194,18 @@
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2089,17 +2221,18 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2123,17 +2256,18 @@
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2149,17 +2283,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2175,17 +2310,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2213,17 +2349,18 @@
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2243,17 +2380,18 @@
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2273,17 +2411,18 @@
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2303,17 +2442,18 @@
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2333,17 +2473,18 @@
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2359,17 +2500,18 @@
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2389,17 +2531,18 @@
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2419,17 +2562,18 @@
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2453,17 +2597,18 @@
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2479,17 +2624,18 @@
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2513,17 +2659,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2547,17 +2694,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2581,17 +2729,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2615,17 +2764,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2649,17 +2799,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2679,17 +2830,18 @@
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>Date when notice was served</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
+      <c r="H71" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H71" s="2" t="inlineStr">
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2705,17 +2857,18 @@
       </c>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2735,17 +2888,18 @@
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2765,17 +2919,18 @@
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>Date when the notice was published</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
+      <c r="H74" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2791,17 +2946,18 @@
       </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
-      <c r="G75" s="2" t="inlineStr">
+      <c r="H75" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2817,17 +2973,18 @@
       </c>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the applicant</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2843,17 +3000,18 @@
       </c>
       <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2869,17 +3027,18 @@
       </c>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2903,17 +3062,18 @@
       </c>
       <c r="D79" s="2" t="inlineStr"/>
       <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
-      <c r="G79" s="2" t="inlineStr">
+      <c r="H79" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="I79" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2929,17 +3089,18 @@
       </c>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2963,17 +3124,18 @@
       </c>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
-      <c r="G81" s="2" t="inlineStr">
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="I81" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2989,17 +3151,18 @@
       </c>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3015,17 +3178,18 @@
       </c>
       <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3041,17 +3205,18 @@
       </c>
       <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3067,17 +3232,18 @@
       </c>
       <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3101,17 +3267,18 @@
       </c>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3127,17 +3294,18 @@
       </c>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been started</t>
         </is>
       </c>
-      <c r="G87" s="2" t="inlineStr">
+      <c r="H87" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H87" s="2" t="inlineStr">
+      <c r="I87" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3153,17 +3321,18 @@
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr">
+      <c r="H88" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H88" s="2" t="inlineStr">
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3179,17 +3348,18 @@
       </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
-      <c r="G89" s="2" t="inlineStr">
+      <c r="H89" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H89" s="2" t="inlineStr">
+      <c r="I89" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3205,17 +3375,18 @@
       </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G90" s="2" t="inlineStr">
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H90" s="2" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3243,17 +3414,18 @@
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G91" s="2" t="inlineStr">
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H91" s="2" t="inlineStr">
+      <c r="I91" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3273,17 +3445,18 @@
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3303,17 +3476,18 @@
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3333,17 +3507,18 @@
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G94" s="2" t="inlineStr">
+      <c r="H94" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H94" s="2" t="inlineStr">
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3363,17 +3538,18 @@
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G95" s="2" t="inlineStr">
+      <c r="H95" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H95" s="2" t="inlineStr">
+      <c r="I95" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3393,17 +3569,18 @@
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
+      <c r="H96" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H96" s="2" t="inlineStr">
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3423,17 +3600,18 @@
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G97" s="2" t="inlineStr">
+      <c r="H97" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H97" s="2" t="inlineStr">
+      <c r="I97" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3453,17 +3631,18 @@
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3483,17 +3662,18 @@
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3517,17 +3697,18 @@
       </c>
       <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
-      <c r="G100" s="2" t="inlineStr">
+      <c r="H100" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="I100" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3543,17 +3724,18 @@
       </c>
       <c r="D101" s="2" t="inlineStr"/>
       <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
-      <c r="G101" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="I101" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3569,17 +3751,18 @@
       </c>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3599,17 +3782,18 @@
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>The complete name of a person</t>
         </is>
       </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3629,17 +3813,18 @@
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3659,17 +3844,18 @@
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3693,17 +3879,18 @@
       </c>
       <c r="D106" s="2" t="inlineStr"/>
       <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
-      <c r="G106" s="2" t="inlineStr">
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H106" s="2" t="inlineStr">
+      <c r="I106" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3723,17 +3910,18 @@
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3753,17 +3941,18 @@
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3779,17 +3968,18 @@
       </c>
       <c r="D109" s="2" t="inlineStr"/>
       <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr">
         <is>
           <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
-      <c r="G109" s="2" t="inlineStr">
+      <c r="H109" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H109" s="2" t="inlineStr">
+      <c r="I109" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3809,17 +3999,18 @@
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3839,17 +4030,18 @@
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,75 +1107,67 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1187,7 +1175,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1206,7 +1194,7 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1214,7 +1202,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1233,20 +1221,24 @@
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1265,14 +1257,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1287,23 +1279,27 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1318,27 +1314,23 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1362,14 +1354,18 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1379,7 +1375,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1398,18 +1394,18 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1419,51 +1415,47 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1471,14 +1463,18 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1488,7 +1484,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1507,13 +1503,13 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1523,7 +1519,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1542,13 +1538,13 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1577,13 +1573,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1612,13 +1608,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1628,7 +1624,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1642,18 +1638,14 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1677,19 +1669,19 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -1699,58 +1691,58 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1774,14 +1766,18 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1791,7 +1787,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1810,18 +1806,18 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1831,51 +1827,47 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1883,14 +1875,18 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1900,7 +1896,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1919,13 +1915,13 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1935,7 +1931,7 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1954,13 +1950,13 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1989,13 +1985,13 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2024,13 +2020,13 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2040,59 +2036,59 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain exemption</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain exemption</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,12 +2096,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2117,17 +2113,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2135,12 +2131,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2150,19 +2146,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2170,17 +2158,17 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2177,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2197,7 +2185,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2212,11 +2200,19 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2224,7 +2220,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2234,24 +2230,16 @@
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2259,12 +2247,12 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2278,7 +2266,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2286,12 +2274,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2301,24 +2289,36 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2328,16 +2328,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -2345,24 +2337,24 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2376,14 +2368,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2407,19 +2399,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2438,14 +2430,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2464,19 +2456,15 @@
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2486,7 +2474,7 @@
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2495,20 +2483,24 @@
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -2527,14 +2519,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2549,28 +2541,32 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2580,19 +2576,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -2600,7 +2588,7 @@
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2619,25 +2607,33 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2656,13 +2652,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2672,7 +2668,7 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2691,13 +2687,13 @@
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2726,13 +2722,13 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2761,13 +2757,13 @@
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2777,7 +2773,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2791,23 +2787,19 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2821,24 +2813,20 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2852,15 +2840,19 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2870,7 +2862,7 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2884,19 +2876,19 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2910,29 +2902,25 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2929,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2949,12 +2937,12 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2968,7 +2956,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2976,7 +2964,7 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2995,7 +2983,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -3003,12 +2991,12 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -3018,11 +3006,19 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3030,34 +3026,26 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3065,26 +3053,34 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3092,34 +3088,26 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3127,17 +3115,17 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3134,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3154,7 +3142,7 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3173,7 +3161,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3181,7 +3169,7 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3200,7 +3188,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3208,7 +3196,7 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3223,11 +3211,19 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3235,7 +3231,7 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3245,24 +3241,16 @@
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3270,12 +3258,12 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3289,7 +3277,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3297,17 +3285,17 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3304,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3324,17 +3312,17 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3331,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3351,39 +3339,51 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -3393,16 +3393,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3410,19 +3402,19 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -3441,14 +3433,14 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3472,19 +3464,19 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -3503,14 +3495,14 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3534,14 +3526,14 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3565,14 +3557,14 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3596,19 +3588,19 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3627,14 +3619,14 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3649,50 +3641,46 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3700,12 +3688,12 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3719,7 +3707,7 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -3727,17 +3715,17 @@
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3746,15 +3734,19 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3764,7 +3756,7 @@
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3778,14 +3770,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3809,14 +3801,14 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -3831,28 +3823,32 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3862,32 +3858,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3906,14 +3898,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3932,24 +3924,20 @@
       <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3963,20 +3951,24 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr"/>
+          <t>Tree removal plan</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -3995,14 +3987,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4011,37 +4003,6 @@
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4049,42 +4010,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B77"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B105:B110"/>
     <mergeCell ref="A48"/>
-    <mergeCell ref="B56:B63"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A49"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B85:B89"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B91:B99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="A63:A77"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A47"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A90:A98"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,75 +1068,67 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1148,7 +1136,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1167,7 +1155,7 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1175,7 +1163,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1194,20 +1182,24 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1226,14 +1218,14 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1248,23 +1240,27 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1279,27 +1275,23 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1323,14 +1315,18 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1340,7 +1336,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1359,18 +1355,18 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1380,51 +1376,47 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1432,14 +1424,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1449,7 +1445,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1468,13 +1464,13 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1484,7 +1480,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1503,13 +1499,13 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1538,13 +1534,13 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1573,13 +1569,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1589,7 +1585,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1603,18 +1599,14 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1638,19 +1630,19 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1660,58 +1652,58 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1735,14 +1727,18 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1752,7 +1748,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1771,18 +1767,18 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -1792,51 +1788,47 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1844,14 +1836,18 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1861,7 +1857,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1880,13 +1876,13 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1896,7 +1892,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1915,13 +1911,13 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1950,13 +1946,13 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1985,13 +1981,13 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2001,59 +1997,59 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain exemption</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain exemption</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,12 +2057,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2078,17 +2074,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2096,12 +2092,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2111,19 +2107,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2131,17 +2119,17 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2138,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2158,7 +2146,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2173,11 +2161,19 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2185,7 +2181,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2195,24 +2191,16 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2220,12 +2208,12 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2239,7 +2227,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2247,12 +2235,12 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2262,24 +2250,36 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2289,16 +2289,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -2306,24 +2298,24 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2337,14 +2329,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2368,19 +2360,19 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2399,14 +2391,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2425,19 +2417,15 @@
       <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2447,7 +2435,7 @@
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2456,20 +2444,24 @@
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2488,14 +2480,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2510,28 +2502,32 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2541,19 +2537,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -2561,7 +2549,7 @@
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2580,25 +2568,33 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2617,13 +2613,13 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2633,7 +2629,7 @@
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2652,13 +2648,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2687,13 +2683,13 @@
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2722,13 +2718,13 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2738,7 +2734,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2752,23 +2748,19 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -2782,24 +2774,20 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2813,15 +2801,19 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2831,7 +2823,7 @@
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2845,19 +2837,19 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2871,29 +2863,25 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2890,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2910,12 +2898,12 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2929,7 +2917,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2937,7 +2925,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2956,7 +2944,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2964,12 +2952,12 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -2979,11 +2967,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2991,34 +2987,26 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3026,26 +3014,34 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3053,34 +3049,26 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3088,17 +3076,17 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3095,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3115,7 +3103,7 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3134,7 +3122,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3142,7 +3130,7 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3161,7 +3149,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3169,7 +3157,7 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3184,11 +3172,19 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3196,7 +3192,7 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3206,24 +3202,16 @@
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3231,12 +3219,12 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3250,7 +3238,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3258,17 +3246,17 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3265,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3285,17 +3273,17 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3292,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3312,39 +3300,51 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -3354,16 +3354,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3371,19 +3363,19 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -3402,14 +3394,14 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3433,19 +3425,19 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -3464,14 +3456,14 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3495,14 +3487,14 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3526,14 +3518,14 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3557,19 +3549,19 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3588,14 +3580,14 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
@@ -3610,50 +3602,46 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3661,12 +3649,12 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3680,7 +3668,7 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3688,17 +3676,17 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3707,15 +3695,19 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3725,7 +3717,7 @@
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3739,14 +3731,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3770,14 +3762,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3792,28 +3784,32 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3823,32 +3819,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3867,14 +3859,14 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3893,24 +3885,20 @@
       <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3924,20 +3912,24 @@
       <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr"/>
+          <t>Tree removal plan</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3956,14 +3948,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3972,37 +3964,6 @@
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4010,42 +3971,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B63:B77"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A48"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B62:B76"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B51:B53"/>
     <mergeCell ref="B47"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A46"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A35"/>
     <mergeCell ref="A47"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,67 +1068,75 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1136,7 +1144,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1155,7 +1163,7 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1163,7 +1171,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1182,24 +1190,20 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Change to right of way</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1218,14 +1222,14 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2471,28 +2475,32 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -2502,19 +2510,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2541,25 +2541,33 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2578,13 +2586,13 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2594,7 +2602,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2613,13 +2621,13 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2648,13 +2656,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2683,13 +2691,13 @@
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2699,7 +2707,7 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2713,23 +2721,19 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2743,24 +2747,20 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -2774,15 +2774,19 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2792,7 +2796,7 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2806,19 +2810,19 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2832,29 +2836,25 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2871,12 +2871,12 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2890,7 +2890,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2917,7 +2917,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2925,12 +2925,12 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2940,11 +2940,19 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2952,34 +2960,26 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2987,26 +2987,34 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3014,34 +3022,26 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3049,17 +3049,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3095,7 +3095,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3103,7 +3103,7 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3122,7 +3122,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3145,11 +3145,19 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3157,7 +3165,7 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3167,24 +3175,16 @@
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3192,12 +3192,12 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3211,7 +3211,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3219,17 +3219,17 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3246,17 +3246,17 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3273,39 +3273,51 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3315,16 +3327,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3332,19 +3336,19 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -3363,14 +3367,14 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -3394,19 +3398,19 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -3425,14 +3429,14 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3456,14 +3460,14 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3487,14 +3491,14 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3518,19 +3522,19 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3549,14 +3553,14 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3571,50 +3575,46 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3622,12 +3622,12 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -3641,7 +3641,7 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3649,17 +3649,17 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3668,15 +3668,19 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3686,7 +3690,7 @@
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3700,14 +3704,14 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3731,14 +3735,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3753,28 +3757,32 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr"/>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3784,32 +3792,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3823,24 +3827,20 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3854,19 +3854,19 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
+          <t>Tree removal plan</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3875,95 +3875,6 @@
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr"/>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3973,40 +3884,40 @@
   <mergeCells count="36">
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B62:B76"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="B83:B87"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A83:A87"/>
     <mergeCell ref="B47"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A54:A61"/>
     <mergeCell ref="B46"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A54:A60"/>
     <mergeCell ref="A46"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A97:A102"/>
     <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A47"/>
-    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">

--- a/generated/spreadsheet/householder-planning-application-hh.xlsx
+++ b/generated/spreadsheet/householder-planning-application-hh.xlsx
@@ -2917,7 +2917,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2925,12 +2925,12 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
